--- a/biology/Botanique/Salix_pyrolifolia/Salix_pyrolifolia.xlsx
+++ b/biology/Botanique/Salix_pyrolifolia/Salix_pyrolifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix pyrolifolia, (Talvikkipaju en finnois, le saule vert en hiver) est une espèce de saule rencontrée dans la taïga eurasienne[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix pyrolifolia, (Talvikkipaju en finnois, le saule vert en hiver) est une espèce de saule rencontrée dans la taïga eurasienne.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix subpyroliformis Y.L. Chang &amp; Skvortsov
 Salix sabulosa Turcz.
 Salix pyrolifolia var. pubescens Nas.
 Salix corylifolia Turcz.
-Salix alnoides Schang. &amp; Sev.[3].</t>
+Salix alnoides Schang. &amp; Sev..</t>
         </is>
       </c>
     </row>
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce atteint 2,5 à 5 mètres de haut. Les branches les plus âgées sont glabres et brunes. Les bourgeons ne dépassent pas 3 mm de long. Les feuilles sont presque rondes, dentelées et chauves. Elles sont vert clair en partie supérieure, plus pâle en dessous. La floraison a lieu en mai avant l'apparition des feuilles[4].
-L'espèce s'hybride facilement avec d'autres espèces, telles que , par exemple, Salix caprea[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce atteint 2,5 à 5 mètres de haut. Les branches les plus âgées sont glabres et brunes. Les bourgeons ne dépassent pas 3 mm de long. Les feuilles sont presque rondes, dentelées et chauves. Elles sont vert clair en partie supérieure, plus pâle en dessous. La floraison a lieu en mai avant l'apparition des feuilles.
+L'espèce s'hybride facilement avec d'autres espèces, telles que , par exemple, Salix caprea.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix pyrolifolia est une plante de la taïga orientale, une zone de distribution uniforme qui s'étend du lac Onega  à l'est de la  péninsule du Kamtchatka. L'espèce est plus fréquente dans les régions du sud de la Sibérie. On la trouve également plus à l'ouest en Finlande (Kuusamo , Tervola ). Tous les talvikkipajut de Finlande sont des plantes femelles, ce qui explique pourquoi ils ne peuvent pas être reproduits et étendus à un plus large niveau[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix pyrolifolia est une plante de la taïga orientale, une zone de distribution uniforme qui s'étend du lac Onega  à l'est de la  péninsule du Kamtchatka. L'espèce est plus fréquente dans les régions du sud de la Sibérie. On la trouve également plus à l'ouest en Finlande (Kuusamo , Tervola ). Tous les talvikkipajut de Finlande sont des plantes femelles, ce qui explique pourquoi ils ne peuvent pas être reproduits et étendus à un plus large niveau.
 </t>
         </is>
       </c>
